--- a/StructureDefinition-disease-name.xlsx
+++ b/StructureDefinition-disease-name.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T09:30:35-05:00</t>
+    <t>2023-11-28T21:37:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-disease-name.xlsx
+++ b/StructureDefinition-disease-name.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/disease-name</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/disease-name</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T21:37:28-05:00</t>
+    <t>2023-12-05T13:08:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -233,7 +233,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/InfectiousDiseaseNameVS</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/ValueSet/InfectiousDiseaseNameVS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -587,7 +587,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.94140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-disease-name.xlsx
+++ b/StructureDefinition-disease-name.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:08:56-05:00</t>
+    <t>2023-12-05T18:52:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
